--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C78C9-C045-459B-B7B7-9791A7A57E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72588593-838F-4CB1-82E2-62D611B3DF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
   <si>
     <t>Feature</t>
   </si>
@@ -112,15 +112,9 @@
     <t>Weston Fiala</t>
   </si>
   <si>
-    <t>User Profiles</t>
-  </si>
-  <si>
     <t>BlankTheorist - Reddit /r/dnd</t>
   </si>
   <si>
-    <t>Allow for saving custom rolls into a user profile so that they do not bleed into other rolls</t>
-  </si>
-  <si>
     <t>Roll Negative Die</t>
   </si>
   <si>
@@ -274,12 +268,6 @@
     <t>Compact view - Saved</t>
   </si>
   <si>
-    <t>Compact view - Custom</t>
-  </si>
-  <si>
-    <t>Custom roll items take up too much space each, I want more to fit on one screen.</t>
-  </si>
-  <si>
     <t>Saved roll items take up too much space each, I want more to fit on one screen.</t>
   </si>
   <si>
@@ -410,6 +398,9 @@
   </si>
   <si>
     <t>Huskywolf - Store Review</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -728,23 +719,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -775,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -789,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -797,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -811,19 +802,19 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -831,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -840,7 +831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -848,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -857,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -865,13 +856,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -879,80 +870,83 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -960,134 +954,134 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
+      <c r="C18" t="s">
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1095,41 +1089,41 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1137,217 +1131,195 @@
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>90</v>
-      </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="F36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72588593-838F-4CB1-82E2-62D611B3DF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA7F56-5192-4A22-B7E2-525F85CD44C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -718,24 +718,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -766,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -780,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -794,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -814,7 +813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -831,7 +830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -848,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -862,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -876,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -890,7 +889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -904,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -918,7 +917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -932,7 +931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -946,7 +945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -960,7 +959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -977,7 +976,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -994,7 +993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -1319,11 +1318,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>